--- a/BayportHOU/Test.xlsx
+++ b/BayportHOU/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="462">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -56,21 +56,6 @@
     <t>MSCUUW141016</t>
   </si>
   <si>
-    <t>MSCU4905138</t>
-  </si>
-  <si>
-    <t>MSC MARIANNA</t>
-  </si>
-  <si>
-    <t>915E</t>
-  </si>
-  <si>
-    <t>9076905051-01</t>
-  </si>
-  <si>
-    <t>MEDUS7637953</t>
-  </si>
-  <si>
     <t>TCLU5190750</t>
   </si>
   <si>
@@ -89,12 +74,6 @@
     <t>MEDUMI542355</t>
   </si>
   <si>
-    <t>MSCU5020602</t>
-  </si>
-  <si>
-    <t>9076905052-01</t>
-  </si>
-  <si>
     <t>MRKU8934960</t>
   </si>
   <si>
@@ -113,27 +92,12 @@
     <t>968478003</t>
   </si>
   <si>
-    <t>MRKU6778451</t>
+    <t>MRKU6421356</t>
   </si>
   <si>
     <t>MSC DAMLA</t>
   </si>
   <si>
-    <t>7221240132</t>
-  </si>
-  <si>
-    <t>584624143</t>
-  </si>
-  <si>
-    <t>MRKU7355032</t>
-  </si>
-  <si>
-    <t>MRKU5778510</t>
-  </si>
-  <si>
-    <t>MRKU6421356</t>
-  </si>
-  <si>
     <t>DJAUSA4138929</t>
   </si>
   <si>
@@ -344,15 +308,6 @@
     <t>MEDUMI479616</t>
   </si>
   <si>
-    <t>MSKU5133465</t>
-  </si>
-  <si>
-    <t>9076905041-01</t>
-  </si>
-  <si>
-    <t>581158459</t>
-  </si>
-  <si>
     <t>MEDU8359469</t>
   </si>
   <si>
@@ -485,6 +440,21 @@
     <t>GESU3744696</t>
   </si>
   <si>
+    <t>CGMU9339261</t>
+  </si>
+  <si>
+    <t>CMA CGM TANCREDI</t>
+  </si>
+  <si>
+    <t>0PG3NE1MA</t>
+  </si>
+  <si>
+    <t>9077905394-01</t>
+  </si>
+  <si>
+    <t>CMDUSEL0861182</t>
+  </si>
+  <si>
     <t>MSKU3844485</t>
   </si>
   <si>
@@ -533,6 +503,18 @@
     <t>RP262773</t>
   </si>
   <si>
+    <t>GLDU3555981</t>
+  </si>
+  <si>
+    <t>DJTULA4185989</t>
+  </si>
+  <si>
+    <t>723241993</t>
+  </si>
+  <si>
+    <t>MEDUMI605525</t>
+  </si>
+  <si>
     <t>MRKU9183550</t>
   </si>
   <si>
@@ -551,6 +533,12 @@
     <t>582135482</t>
   </si>
   <si>
+    <t>MSCU3974540</t>
+  </si>
+  <si>
+    <t>DJTULA4185990</t>
+  </si>
+  <si>
     <t>TCKU3909386</t>
   </si>
   <si>
@@ -563,6 +551,51 @@
     <t>MEDUG2109502</t>
   </si>
   <si>
+    <t>MEDU3493351</t>
+  </si>
+  <si>
+    <t>MSC BUSAN</t>
+  </si>
+  <si>
+    <t>00917</t>
+  </si>
+  <si>
+    <t>DJTULA4186016</t>
+  </si>
+  <si>
+    <t>723242186</t>
+  </si>
+  <si>
+    <t>MEDUMI683621</t>
+  </si>
+  <si>
+    <t>MRKU0944914</t>
+  </si>
+  <si>
+    <t>SM SEATTLE</t>
+  </si>
+  <si>
+    <t>00922</t>
+  </si>
+  <si>
+    <t>719268461</t>
+  </si>
+  <si>
+    <t>MAEU968983733</t>
+  </si>
+  <si>
+    <t>TGHU4511860</t>
+  </si>
+  <si>
+    <t>PONU1713948</t>
+  </si>
+  <si>
+    <t>CADU4008256</t>
+  </si>
+  <si>
+    <t>MSKU6797849</t>
+  </si>
+  <si>
     <t>MSCU5576470</t>
   </si>
   <si>
@@ -608,6 +641,18 @@
     <t>MAEU581369698</t>
   </si>
   <si>
+    <t>MRKU6560726</t>
+  </si>
+  <si>
+    <t>7221249341</t>
+  </si>
+  <si>
+    <t>584624146</t>
+  </si>
+  <si>
+    <t>MRSU0237262</t>
+  </si>
+  <si>
     <t>MRKU2380454</t>
   </si>
   <si>
@@ -662,6 +707,15 @@
     <t>HLCUEUR190490430</t>
   </si>
   <si>
+    <t>FDCU0249164</t>
+  </si>
+  <si>
+    <t>7221240380</t>
+  </si>
+  <si>
+    <t>MEDUCO767387</t>
+  </si>
+  <si>
     <t>MRSU3178327</t>
   </si>
   <si>
@@ -683,6 +737,21 @@
     <t>MAEU581690968</t>
   </si>
   <si>
+    <t>MNBU0189011</t>
+  </si>
+  <si>
+    <t>MAERSK IOWA</t>
+  </si>
+  <si>
+    <t>920W</t>
+  </si>
+  <si>
+    <t>9071906201-01</t>
+  </si>
+  <si>
+    <t>581872660</t>
+  </si>
+  <si>
     <t>TGBU6653902</t>
   </si>
   <si>
@@ -707,6 +776,12 @@
     <t>968777419</t>
   </si>
   <si>
+    <t>MEDU3856950</t>
+  </si>
+  <si>
+    <t>DJTULA4186017</t>
+  </si>
+  <si>
     <t>CZZU3476986</t>
   </si>
   <si>
@@ -722,12 +797,6 @@
     <t>HASU4516856</t>
   </si>
   <si>
-    <t>MAERSK IOWA</t>
-  </si>
-  <si>
-    <t>920W</t>
-  </si>
-  <si>
     <t>9071906199-01</t>
   </si>
   <si>
@@ -755,6 +824,15 @@
     <t>MEDUS7783690</t>
   </si>
   <si>
+    <t>MCAU8569678</t>
+  </si>
+  <si>
+    <t>9071906202-01</t>
+  </si>
+  <si>
+    <t>MAEU581503313</t>
+  </si>
+  <si>
     <t>MRKU0919634</t>
   </si>
   <si>
@@ -791,6 +869,18 @@
     <t>DJIAHA4179071</t>
   </si>
   <si>
+    <t>TRHU2153461</t>
+  </si>
+  <si>
+    <t>0PG3NE</t>
+  </si>
+  <si>
+    <t>9077905772-01</t>
+  </si>
+  <si>
+    <t>NKHG302559</t>
+  </si>
+  <si>
     <t>APHU6946270</t>
   </si>
   <si>
@@ -821,9 +911,6 @@
     <t>ECMU1789816</t>
   </si>
   <si>
-    <t>CMA CGM TANCREDI</t>
-  </si>
-  <si>
     <t>PG3NE</t>
   </si>
   <si>
@@ -833,6 +920,15 @@
     <t>APLUSHPP501775</t>
   </si>
   <si>
+    <t>MNBU0230239</t>
+  </si>
+  <si>
+    <t>9077905602-01</t>
+  </si>
+  <si>
+    <t>MAEU581705647</t>
+  </si>
+  <si>
     <t>SUDU8656329</t>
   </si>
   <si>
@@ -884,6 +980,12 @@
     <t>HLCUEUR1904ASCQ0</t>
   </si>
   <si>
+    <t>TRLU9044537</t>
+  </si>
+  <si>
+    <t>9077905773-01</t>
+  </si>
+  <si>
     <t>MSKU5013428</t>
   </si>
   <si>
@@ -908,6 +1010,15 @@
     <t>968504912</t>
   </si>
   <si>
+    <t>SUDU8226919</t>
+  </si>
+  <si>
+    <t>9077905596-01</t>
+  </si>
+  <si>
+    <t>MAEU581775753</t>
+  </si>
+  <si>
     <t>FESU2112976</t>
   </si>
   <si>
@@ -1067,18 +1178,6 @@
     <t>582217879</t>
   </si>
   <si>
-    <t>SUDU7886292</t>
-  </si>
-  <si>
-    <t>DJMSYA4145958</t>
-  </si>
-  <si>
-    <t>719626505</t>
-  </si>
-  <si>
-    <t>MAEU968662612</t>
-  </si>
-  <si>
     <t>MRKU1006692</t>
   </si>
   <si>
@@ -1103,39 +1202,12 @@
     <t>SUHL059899</t>
   </si>
   <si>
-    <t>TRLU6652997</t>
-  </si>
-  <si>
-    <t>PG3LE</t>
-  </si>
-  <si>
-    <t>7075406983</t>
-  </si>
-  <si>
-    <t>APLUSHPP501647</t>
-  </si>
-  <si>
     <t>HLBU1972320</t>
   </si>
   <si>
     <t>9077905210-01</t>
   </si>
   <si>
-    <t>AMCU2500184</t>
-  </si>
-  <si>
-    <t>CMA CGM ALCAZAR</t>
-  </si>
-  <si>
-    <t>0BV2</t>
-  </si>
-  <si>
-    <t>7221245239</t>
-  </si>
-  <si>
-    <t>CMDUBSE0201161</t>
-  </si>
-  <si>
     <t>TTNU4737421</t>
   </si>
   <si>
@@ -1148,9 +1220,6 @@
     <t>TCNU6161121</t>
   </si>
   <si>
-    <t>0PG3NE1MA</t>
-  </si>
-  <si>
     <t>9077905395-01</t>
   </si>
   <si>
@@ -1205,12 +1274,6 @@
     <t>TEMU8339315</t>
   </si>
   <si>
-    <t>SM SEATTLE</t>
-  </si>
-  <si>
-    <t>00922</t>
-  </si>
-  <si>
     <t>DJAUSA4155252</t>
   </si>
   <si>
@@ -1335,18 +1398,6 @@
   </si>
   <si>
     <t>MEDURP294495</t>
-  </si>
-  <si>
-    <t>MSDU1054059</t>
-  </si>
-  <si>
-    <t>DJIAHA4168025</t>
-  </si>
-  <si>
-    <t>7221237975</t>
-  </si>
-  <si>
-    <t>TN073647</t>
   </si>
 </sst>
 </file>
@@ -1391,7 +1442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1466,376 +1517,370 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4"/>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6"/>
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E8"/>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E9"/>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E10"/>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14"/>
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E16"/>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
         <v>64</v>
       </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
       <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17" t="s">
         <v>66</v>
-      </c>
-      <c r="F17" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E19"/>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1844,29 +1889,29 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26">
@@ -1874,768 +1919,780 @@
         <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
         <v>95</v>
       </c>
-      <c r="E26"/>
+      <c r="E26" t="s">
+        <v>96</v>
+      </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29"/>
+        <v>104</v>
+      </c>
+      <c r="E29" t="s">
+        <v>105</v>
+      </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" t="s">
-        <v>108</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E31"/>
       <c r="F31" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33"/>
+        <v>116</v>
+      </c>
+      <c r="E33" t="s">
+        <v>117</v>
+      </c>
       <c r="F33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34"/>
+        <v>120</v>
+      </c>
+      <c r="E34" t="s">
+        <v>121</v>
+      </c>
       <c r="F34" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E35" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F35" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="D39" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E39" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F39" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E40" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F40" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="D41" t="s">
-        <v>140</v>
-      </c>
-      <c r="E41" t="s">
-        <v>141</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="E41"/>
       <c r="F41" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
-      </c>
-      <c r="E42"/>
+        <v>148</v>
+      </c>
+      <c r="E42" t="s">
+        <v>149</v>
+      </c>
       <c r="F42" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>147</v>
-      </c>
-      <c r="E43"/>
+        <v>152</v>
+      </c>
+      <c r="E43" t="s">
+        <v>153</v>
+      </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B45" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E45" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F45" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B46" t="s">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E46" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="F46" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E47" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F47" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="E48" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F48" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B49" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C49" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>168</v>
-      </c>
-      <c r="E49"/>
+        <v>176</v>
+      </c>
+      <c r="E49" t="s">
+        <v>177</v>
+      </c>
       <c r="F49" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="D50" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="E50" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="F50" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C51" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D51" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E51" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="F51" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B52" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="D52" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E52" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F52" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="C53" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="D53" t="s">
-        <v>184</v>
-      </c>
-      <c r="E53"/>
+        <v>188</v>
+      </c>
+      <c r="E53" t="s">
+        <v>188</v>
+      </c>
       <c r="F53" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>192</v>
+      </c>
+      <c r="B54" t="s">
         <v>186</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>187</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>188</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F54" t="s">
         <v>189</v>
-      </c>
-      <c r="E54"/>
-      <c r="F54" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="D55" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E55" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F55" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>194</v>
+      </c>
+      <c r="B56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" t="s">
+        <v>138</v>
+      </c>
+      <c r="D56" t="s">
         <v>195</v>
-      </c>
-      <c r="B56" t="s">
-        <v>28</v>
-      </c>
-      <c r="C56" t="s">
-        <v>76</v>
-      </c>
-      <c r="D56" t="s">
-        <v>196</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>197</v>
+      </c>
+      <c r="B57" t="s">
         <v>198</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>199</v>
-      </c>
-      <c r="C57" t="s">
-        <v>21</v>
       </c>
       <c r="D57" t="s">
         <v>200</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57"/>
+      <c r="F57" t="s">
         <v>201</v>
-      </c>
-      <c r="F57" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>202</v>
+      </c>
+      <c r="B58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" t="s">
         <v>203</v>
       </c>
-      <c r="B58" t="s">
-        <v>199</v>
-      </c>
-      <c r="C58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>204</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>205</v>
-      </c>
-      <c r="F58" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>206</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" t="s">
         <v>207</v>
-      </c>
-      <c r="B59" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" t="s">
-        <v>208</v>
-      </c>
-      <c r="D59" t="s">
-        <v>209</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>209</v>
+      </c>
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E60" t="s">
+        <v>210</v>
+      </c>
+      <c r="F60" t="s">
         <v>211</v>
-      </c>
-      <c r="B60" t="s">
-        <v>212</v>
-      </c>
-      <c r="C60" t="s">
-        <v>213</v>
-      </c>
-      <c r="D60" t="s">
-        <v>214</v>
-      </c>
-      <c r="E60"/>
-      <c r="F60" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B61" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="D61" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E61" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F61" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>214</v>
       </c>
       <c r="C62" t="s">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>221</v>
-      </c>
-      <c r="E62"/>
+        <v>215</v>
+      </c>
+      <c r="E62" t="s">
+        <v>216</v>
+      </c>
       <c r="F62" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B63" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E63" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F63" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B64" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>223</v>
       </c>
       <c r="D64" t="s">
-        <v>228</v>
-      </c>
-      <c r="E64" t="s">
-        <v>229</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="E64"/>
       <c r="F64" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>227</v>
       </c>
       <c r="C65" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="D65" t="s">
-        <v>232</v>
-      </c>
-      <c r="E65" t="s">
-        <v>232</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="E65"/>
       <c r="F65" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="D66" t="s">
         <v>232</v>
@@ -2649,327 +2706,321 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>234</v>
+      </c>
+      <c r="B67" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" t="s">
         <v>235</v>
       </c>
-      <c r="B67" t="s">
+      <c r="E67" t="s">
         <v>236</v>
       </c>
-      <c r="C67" t="s">
+      <c r="F67" t="s">
         <v>237</v>
-      </c>
-      <c r="D67" t="s">
-        <v>238</v>
-      </c>
-      <c r="E67"/>
-      <c r="F67" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>238</v>
+      </c>
+      <c r="B68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" t="s">
+        <v>223</v>
+      </c>
+      <c r="D68" t="s">
+        <v>239</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68" t="s">
         <v>240</v>
-      </c>
-      <c r="B68" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68" t="s">
-        <v>29</v>
-      </c>
-      <c r="D68" t="s">
-        <v>241</v>
-      </c>
-      <c r="E68" t="s">
-        <v>242</v>
-      </c>
-      <c r="F68" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>241</v>
+      </c>
+      <c r="B69" t="s">
+        <v>242</v>
+      </c>
+      <c r="C69" t="s">
+        <v>243</v>
+      </c>
+      <c r="D69" t="s">
         <v>244</v>
-      </c>
-      <c r="B69" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" t="s">
-        <v>97</v>
-      </c>
-      <c r="D69" t="s">
-        <v>245</v>
       </c>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>246</v>
+      </c>
+      <c r="B70" t="s">
+        <v>214</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
         <v>247</v>
       </c>
-      <c r="B70" t="s">
+      <c r="E70" t="s">
         <v>248</v>
       </c>
-      <c r="C70" t="s">
+      <c r="F70" t="s">
         <v>249</v>
-      </c>
-      <c r="D70" t="s">
-        <v>250</v>
-      </c>
-      <c r="E70" t="s">
-        <v>251</v>
-      </c>
-      <c r="F70" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>250</v>
+      </c>
+      <c r="B71" t="s">
+        <v>214</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
+        <v>251</v>
+      </c>
+      <c r="E71" t="s">
+        <v>252</v>
+      </c>
+      <c r="F71" t="s">
         <v>253</v>
-      </c>
-      <c r="B71" t="s">
-        <v>28</v>
-      </c>
-      <c r="C71" t="s">
-        <v>29</v>
-      </c>
-      <c r="D71" t="s">
-        <v>254</v>
-      </c>
-      <c r="E71" t="s">
-        <v>255</v>
-      </c>
-      <c r="F71" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>181</v>
       </c>
       <c r="D72" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E72" t="s">
-        <v>255</v>
+        <v>183</v>
       </c>
       <c r="F72" t="s">
-        <v>256</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C73" t="s">
-        <v>260</v>
+        <v>112</v>
       </c>
       <c r="D73" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E73" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F73" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="D74" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E74" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F74" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B75" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="C75" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="D75" t="s">
-        <v>271</v>
-      </c>
-      <c r="E75" t="s">
-        <v>271</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="E75"/>
       <c r="F75" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C76" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="D76" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E76" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F76" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C77" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="D77" t="s">
-        <v>274</v>
-      </c>
-      <c r="E77" t="s">
-        <v>274</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="E77"/>
       <c r="F77" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="C78" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>274</v>
-      </c>
-      <c r="E78" t="s">
-        <v>274</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="E78"/>
       <c r="F78" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>273</v>
+      </c>
+      <c r="B79" t="s">
+        <v>274</v>
+      </c>
+      <c r="C79" t="s">
+        <v>275</v>
+      </c>
+      <c r="D79" t="s">
+        <v>276</v>
+      </c>
+      <c r="E79" t="s">
+        <v>277</v>
+      </c>
+      <c r="F79" t="s">
         <v>278</v>
-      </c>
-      <c r="B79" t="s">
-        <v>279</v>
-      </c>
-      <c r="C79" t="s">
-        <v>60</v>
-      </c>
-      <c r="D79" t="s">
-        <v>280</v>
-      </c>
-      <c r="E79" t="s">
-        <v>281</v>
-      </c>
-      <c r="F79" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D80" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E80" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="F80" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D81" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E81" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="F81" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>285</v>
+      </c>
+      <c r="B82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" t="s">
+        <v>286</v>
+      </c>
+      <c r="D82" t="s">
         <v>287</v>
-      </c>
-      <c r="B82" t="s">
-        <v>212</v>
-      </c>
-      <c r="C82" t="s">
-        <v>213</v>
-      </c>
-      <c r="D82" t="s">
-        <v>288</v>
       </c>
       <c r="E82"/>
       <c r="F82" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>289</v>
+      </c>
+      <c r="B83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" t="s">
         <v>290</v>
-      </c>
-      <c r="B83" t="s">
-        <v>28</v>
-      </c>
-      <c r="C83" t="s">
-        <v>29</v>
       </c>
       <c r="D83" t="s">
         <v>291</v>
@@ -2986,10 +3037,10 @@
         <v>294</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D84" t="s">
         <v>295</v>
@@ -3006,13 +3057,13 @@
         <v>298</v>
       </c>
       <c r="B85" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>299</v>
       </c>
       <c r="D85" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E85" t="s">
         <v>300</v>
@@ -3026,567 +3077,565 @@
         <v>302</v>
       </c>
       <c r="B86" t="s">
-        <v>212</v>
+        <v>47</v>
       </c>
       <c r="C86" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="D86" t="s">
         <v>303</v>
       </c>
       <c r="E86"/>
       <c r="F86" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="D87" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E87" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="F87" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>308</v>
+      </c>
+      <c r="B88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" t="s">
+        <v>112</v>
+      </c>
+      <c r="D88" t="s">
         <v>306</v>
       </c>
-      <c r="B88" t="s">
-        <v>28</v>
-      </c>
-      <c r="C88" t="s">
-        <v>29</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
+        <v>306</v>
+      </c>
+      <c r="F88" t="s">
         <v>307</v>
-      </c>
-      <c r="E88" t="s">
-        <v>255</v>
-      </c>
-      <c r="F88" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B89" t="s">
-        <v>309</v>
+        <v>27</v>
       </c>
       <c r="C89" t="s">
-        <v>260</v>
+        <v>112</v>
       </c>
       <c r="D89" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E89" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F89" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>310</v>
+      </c>
+      <c r="B90" t="s">
+        <v>311</v>
+      </c>
+      <c r="C90" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" t="s">
+        <v>312</v>
+      </c>
+      <c r="E90" t="s">
         <v>313</v>
       </c>
-      <c r="B90" t="s">
-        <v>28</v>
-      </c>
-      <c r="C90" t="s">
-        <v>29</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="F90" t="s">
         <v>314</v>
-      </c>
-      <c r="E90" t="s">
-        <v>315</v>
-      </c>
-      <c r="F90" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D91" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E91" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="F91" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B92" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C92" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="D92" t="s">
-        <v>322</v>
-      </c>
-      <c r="E92"/>
+        <v>318</v>
+      </c>
+      <c r="E92" t="s">
+        <v>281</v>
+      </c>
       <c r="F92" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B93" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C93" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="D93" t="s">
-        <v>325</v>
-      </c>
-      <c r="E93" t="s">
-        <v>326</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="E93"/>
       <c r="F93" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B94" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>286</v>
       </c>
       <c r="D94" t="s">
-        <v>329</v>
-      </c>
-      <c r="E94" t="s">
-        <v>330</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E94"/>
       <c r="F94" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B95" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C95" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="D95" t="s">
-        <v>333</v>
-      </c>
-      <c r="E95"/>
+        <v>325</v>
+      </c>
+      <c r="E95" t="s">
+        <v>326</v>
+      </c>
       <c r="F95" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B96" t="s">
-        <v>336</v>
+        <v>21</v>
       </c>
       <c r="C96" t="s">
-        <v>337</v>
+        <v>22</v>
       </c>
       <c r="D96" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="E96" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F96" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B97" t="s">
-        <v>336</v>
+        <v>47</v>
       </c>
       <c r="C97" t="s">
-        <v>337</v>
+        <v>223</v>
       </c>
       <c r="D97" t="s">
-        <v>342</v>
-      </c>
-      <c r="E97" t="s">
-        <v>343</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="E97"/>
       <c r="F97" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B98" t="s">
-        <v>236</v>
+        <v>21</v>
       </c>
       <c r="C98" t="s">
-        <v>249</v>
+        <v>22</v>
       </c>
       <c r="D98" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="E98" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F98" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B99" t="s">
-        <v>139</v>
+        <v>227</v>
       </c>
       <c r="C99" t="s">
-        <v>60</v>
+        <v>228</v>
       </c>
       <c r="D99" t="s">
-        <v>348</v>
-      </c>
-      <c r="E99" t="s">
-        <v>349</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="E99"/>
       <c r="F99" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B100" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D100" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E100" t="s">
-        <v>353</v>
+        <v>281</v>
       </c>
       <c r="F100" t="s">
-        <v>354</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D101" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E101" t="s">
-        <v>357</v>
+        <v>281</v>
       </c>
       <c r="F101" t="s">
-        <v>358</v>
+        <v>282</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B102" t="s">
-        <v>48</v>
+        <v>346</v>
       </c>
       <c r="C102" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="D102" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="E102" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="F102" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B103" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C103" t="s">
-        <v>364</v>
+        <v>22</v>
       </c>
       <c r="D103" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="E103" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="F103" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="B104" t="s">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>213</v>
+        <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>368</v>
-      </c>
-      <c r="E104"/>
+        <v>355</v>
+      </c>
+      <c r="E104" t="s">
+        <v>356</v>
+      </c>
       <c r="F104" t="s">
-        <v>289</v>
+        <v>357</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B105" t="s">
-        <v>370</v>
+        <v>47</v>
       </c>
       <c r="C105" t="s">
-        <v>371</v>
+        <v>223</v>
       </c>
       <c r="D105" t="s">
-        <v>372</v>
-      </c>
-      <c r="E105" t="s">
-        <v>372</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="E105"/>
       <c r="F105" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B106" t="s">
-        <v>34</v>
+        <v>242</v>
       </c>
       <c r="C106" t="s">
-        <v>127</v>
+        <v>275</v>
       </c>
       <c r="D106" t="s">
-        <v>375</v>
-      </c>
-      <c r="E106"/>
+        <v>362</v>
+      </c>
+      <c r="E106" t="s">
+        <v>363</v>
+      </c>
       <c r="F106" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B107" t="s">
-        <v>269</v>
+        <v>21</v>
       </c>
       <c r="C107" t="s">
-        <v>378</v>
+        <v>22</v>
       </c>
       <c r="D107" t="s">
-        <v>379</v>
-      </c>
-      <c r="E107"/>
+        <v>366</v>
+      </c>
+      <c r="E107" t="s">
+        <v>367</v>
+      </c>
       <c r="F107" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B108" t="s">
-        <v>382</v>
+        <v>47</v>
       </c>
       <c r="C108" t="s">
-        <v>383</v>
+        <v>223</v>
       </c>
       <c r="D108" t="s">
-        <v>384</v>
-      </c>
-      <c r="E108" t="s">
-        <v>384</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="E108"/>
       <c r="F108" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="B109" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="C109" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="D109" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E109" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="F109" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="B110" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="C110" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="D110" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="E110" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F110" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B111" t="s">
-        <v>387</v>
+        <v>242</v>
       </c>
       <c r="C111" t="s">
-        <v>388</v>
+        <v>275</v>
       </c>
       <c r="D111" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E111" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="F111" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B112" t="s">
+        <v>124</v>
+      </c>
+      <c r="C112" t="s">
+        <v>48</v>
+      </c>
+      <c r="D112" t="s">
+        <v>385</v>
+      </c>
+      <c r="E112" t="s">
+        <v>386</v>
+      </c>
+      <c r="F112" t="s">
         <v>387</v>
-      </c>
-      <c r="C112" t="s">
-        <v>388</v>
-      </c>
-      <c r="D112" t="s">
-        <v>389</v>
-      </c>
-      <c r="E112" t="s">
-        <v>389</v>
-      </c>
-      <c r="F112" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B113" t="s">
-        <v>387</v>
+        <v>21</v>
       </c>
       <c r="C113" t="s">
-        <v>388</v>
+        <v>22</v>
       </c>
       <c r="D113" t="s">
         <v>389</v>
       </c>
       <c r="E113" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F113" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>392</v>
+      </c>
+      <c r="B114" t="s">
+        <v>36</v>
+      </c>
+      <c r="C114" t="s">
+        <v>290</v>
+      </c>
+      <c r="D114" t="s">
+        <v>393</v>
+      </c>
+      <c r="E114" t="s">
+        <v>394</v>
+      </c>
+      <c r="F114" t="s">
         <v>395</v>
-      </c>
-      <c r="B114" t="s">
-        <v>387</v>
-      </c>
-      <c r="C114" t="s">
-        <v>388</v>
-      </c>
-      <c r="D114" t="s">
-        <v>389</v>
-      </c>
-      <c r="E114" t="s">
-        <v>389</v>
-      </c>
-      <c r="F114" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="115">
@@ -3594,325 +3643,499 @@
         <v>396</v>
       </c>
       <c r="B115" t="s">
+        <v>227</v>
+      </c>
+      <c r="C115" t="s">
+        <v>228</v>
+      </c>
+      <c r="D115" t="s">
         <v>397</v>
       </c>
-      <c r="C115" t="s">
-        <v>398</v>
-      </c>
-      <c r="D115" t="s">
-        <v>399</v>
-      </c>
-      <c r="E115" t="s">
-        <v>400</v>
-      </c>
+      <c r="E115"/>
       <c r="F115" t="s">
-        <v>401</v>
+        <v>321</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B116" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C116" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D116" t="s">
-        <v>403</v>
-      </c>
-      <c r="E116" t="s">
-        <v>403</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="E116"/>
       <c r="F116" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B117" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="C117" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D117" t="s">
+        <v>402</v>
+      </c>
+      <c r="E117"/>
+      <c r="F117" t="s">
         <v>403</v>
-      </c>
-      <c r="E117" t="s">
-        <v>403</v>
-      </c>
-      <c r="F117" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>404</v>
+      </c>
+      <c r="B118" t="s">
+        <v>405</v>
+      </c>
+      <c r="C118" t="s">
         <v>406</v>
       </c>
-      <c r="B118" t="s">
-        <v>34</v>
-      </c>
-      <c r="C118" t="s">
-        <v>127</v>
-      </c>
       <c r="D118" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E118" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F118" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B119" t="s">
-        <v>59</v>
+        <v>410</v>
       </c>
       <c r="C119" t="s">
-        <v>208</v>
+        <v>411</v>
       </c>
       <c r="D119" t="s">
-        <v>408</v>
-      </c>
-      <c r="E119"/>
+        <v>412</v>
+      </c>
+      <c r="E119" t="s">
+        <v>412</v>
+      </c>
       <c r="F119" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>414</v>
+      </c>
+      <c r="B120" t="s">
         <v>410</v>
       </c>
-      <c r="B120" t="s">
-        <v>248</v>
-      </c>
       <c r="C120" t="s">
-        <v>249</v>
+        <v>411</v>
       </c>
       <c r="D120" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E120" t="s">
-        <v>251</v>
+        <v>412</v>
       </c>
       <c r="F120" t="s">
-        <v>252</v>
+        <v>413</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>415</v>
+      </c>
+      <c r="B121" t="s">
+        <v>410</v>
+      </c>
+      <c r="C121" t="s">
+        <v>411</v>
+      </c>
+      <c r="D121" t="s">
         <v>412</v>
       </c>
-      <c r="B121" t="s">
-        <v>59</v>
-      </c>
-      <c r="C121" t="s">
-        <v>208</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
+        <v>412</v>
+      </c>
+      <c r="F121" t="s">
         <v>413</v>
-      </c>
-      <c r="E121"/>
-      <c r="F121" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B122" t="s">
-        <v>34</v>
+        <v>410</v>
       </c>
       <c r="C122" t="s">
-        <v>97</v>
+        <v>411</v>
       </c>
       <c r="D122" t="s">
-        <v>416</v>
-      </c>
-      <c r="E122"/>
+        <v>412</v>
+      </c>
+      <c r="E122" t="s">
+        <v>412</v>
+      </c>
       <c r="F122" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B123" t="s">
-        <v>59</v>
+        <v>410</v>
       </c>
       <c r="C123" t="s">
-        <v>208</v>
+        <v>411</v>
       </c>
       <c r="D123" t="s">
-        <v>419</v>
-      </c>
-      <c r="E123"/>
+        <v>412</v>
+      </c>
+      <c r="E123" t="s">
+        <v>412</v>
+      </c>
       <c r="F123" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B124" t="s">
-        <v>59</v>
+        <v>410</v>
       </c>
       <c r="C124" t="s">
-        <v>208</v>
+        <v>411</v>
       </c>
       <c r="D124" t="s">
-        <v>422</v>
-      </c>
-      <c r="E124"/>
+        <v>412</v>
+      </c>
+      <c r="E124" t="s">
+        <v>412</v>
+      </c>
       <c r="F124" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B125" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="C125" t="s">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="D125" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E125" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F125" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B126" t="s">
-        <v>212</v>
+        <v>27</v>
       </c>
       <c r="C126" t="s">
-        <v>213</v>
+        <v>112</v>
       </c>
       <c r="D126" t="s">
-        <v>429</v>
-      </c>
-      <c r="E126"/>
+        <v>424</v>
+      </c>
+      <c r="E126" t="s">
+        <v>424</v>
+      </c>
       <c r="F126" t="s">
-        <v>289</v>
+        <v>425</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B127" t="s">
-        <v>212</v>
+        <v>27</v>
       </c>
       <c r="C127" t="s">
-        <v>213</v>
+        <v>112</v>
       </c>
       <c r="D127" t="s">
-        <v>431</v>
-      </c>
-      <c r="E127"/>
+        <v>424</v>
+      </c>
+      <c r="E127" t="s">
+        <v>424</v>
+      </c>
       <c r="F127" t="s">
-        <v>289</v>
+        <v>425</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B128" t="s">
-        <v>269</v>
+        <v>27</v>
       </c>
       <c r="C128" t="s">
-        <v>433</v>
+        <v>112</v>
       </c>
       <c r="D128" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="E128" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="F128" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B129" t="s">
-        <v>269</v>
+        <v>47</v>
       </c>
       <c r="C129" t="s">
-        <v>433</v>
+        <v>223</v>
       </c>
       <c r="D129" t="s">
-        <v>434</v>
-      </c>
-      <c r="E129" t="s">
-        <v>434</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="E129"/>
       <c r="F129" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B130" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="C130" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="D130" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E130" t="s">
-        <v>439</v>
+        <v>277</v>
       </c>
       <c r="F130" t="s">
-        <v>440</v>
+        <v>278</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>433</v>
+      </c>
+      <c r="B131" t="s">
+        <v>47</v>
+      </c>
+      <c r="C131" t="s">
+        <v>223</v>
+      </c>
+      <c r="D131" t="s">
+        <v>434</v>
+      </c>
+      <c r="E131"/>
+      <c r="F131" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>436</v>
+      </c>
+      <c r="B132" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132" t="s">
+        <v>85</v>
+      </c>
+      <c r="D132" t="s">
+        <v>437</v>
+      </c>
+      <c r="E132"/>
+      <c r="F132" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>439</v>
+      </c>
+      <c r="B133" t="s">
+        <v>47</v>
+      </c>
+      <c r="C133" t="s">
+        <v>223</v>
+      </c>
+      <c r="D133" t="s">
+        <v>440</v>
+      </c>
+      <c r="E133"/>
+      <c r="F133" t="s">
         <v>441</v>
       </c>
-      <c r="B131" t="s">
-        <v>15</v>
-      </c>
-      <c r="C131" t="s">
-        <v>337</v>
-      </c>
-      <c r="D131" t="s">
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
         <v>442</v>
       </c>
-      <c r="E131" t="s">
+      <c r="B134" t="s">
+        <v>47</v>
+      </c>
+      <c r="C134" t="s">
+        <v>223</v>
+      </c>
+      <c r="D134" t="s">
         <v>443</v>
       </c>
-      <c r="F131" t="s">
+      <c r="E134"/>
+      <c r="F134" t="s">
         <v>444</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>445</v>
+      </c>
+      <c r="B135" t="s">
+        <v>124</v>
+      </c>
+      <c r="C135" t="s">
+        <v>48</v>
+      </c>
+      <c r="D135" t="s">
+        <v>446</v>
+      </c>
+      <c r="E135" t="s">
+        <v>447</v>
+      </c>
+      <c r="F135" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>449</v>
+      </c>
+      <c r="B136" t="s">
+        <v>227</v>
+      </c>
+      <c r="C136" t="s">
+        <v>228</v>
+      </c>
+      <c r="D136" t="s">
+        <v>450</v>
+      </c>
+      <c r="E136"/>
+      <c r="F136" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>451</v>
+      </c>
+      <c r="B137" t="s">
+        <v>227</v>
+      </c>
+      <c r="C137" t="s">
+        <v>228</v>
+      </c>
+      <c r="D137" t="s">
+        <v>452</v>
+      </c>
+      <c r="E137"/>
+      <c r="F137" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>453</v>
+      </c>
+      <c r="B138" t="s">
+        <v>143</v>
+      </c>
+      <c r="C138" t="s">
+        <v>454</v>
+      </c>
+      <c r="D138" t="s">
+        <v>455</v>
+      </c>
+      <c r="E138" t="s">
+        <v>455</v>
+      </c>
+      <c r="F138" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>457</v>
+      </c>
+      <c r="B139" t="s">
+        <v>143</v>
+      </c>
+      <c r="C139" t="s">
+        <v>454</v>
+      </c>
+      <c r="D139" t="s">
+        <v>455</v>
+      </c>
+      <c r="E139" t="s">
+        <v>455</v>
+      </c>
+      <c r="F139" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>458</v>
+      </c>
+      <c r="B140" t="s">
+        <v>242</v>
+      </c>
+      <c r="C140" t="s">
+        <v>275</v>
+      </c>
+      <c r="D140" t="s">
+        <v>459</v>
+      </c>
+      <c r="E140" t="s">
+        <v>460</v>
+      </c>
+      <c r="F140" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/BayportHOU/Test.xlsx
+++ b/BayportHOU/Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="430">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -52,6 +52,1263 @@
   </si>
   <si>
     <t>581500104</t>
+  </si>
+  <si>
+    <t>CGMU9339261</t>
+  </si>
+  <si>
+    <t>CMA CGM TANCREDI</t>
+  </si>
+  <si>
+    <t>0PG3NE1MA</t>
+  </si>
+  <si>
+    <t>9077905394-01</t>
+  </si>
+  <si>
+    <t>CMDUSEL0861182</t>
+  </si>
+  <si>
+    <t>UACU5552972</t>
+  </si>
+  <si>
+    <t>RIO BLACKWATER</t>
+  </si>
+  <si>
+    <t>009W</t>
+  </si>
+  <si>
+    <t>9071906611-01</t>
+  </si>
+  <si>
+    <t>HLCUHAM190494882</t>
+  </si>
+  <si>
+    <t>HLBU1087648</t>
+  </si>
+  <si>
+    <t>9071906620-01</t>
+  </si>
+  <si>
+    <t>HLCUEUR1904AOZP5</t>
+  </si>
+  <si>
+    <t>HLBU1955555</t>
+  </si>
+  <si>
+    <t>9071906610-01</t>
+  </si>
+  <si>
+    <t>HLCUEUR1904AUQJ0</t>
+  </si>
+  <si>
+    <t>TGHU8373857</t>
+  </si>
+  <si>
+    <t>9071906615-01</t>
+  </si>
+  <si>
+    <t>HLCUEUR1904ATOS6</t>
+  </si>
+  <si>
+    <t>GLDU3555981</t>
+  </si>
+  <si>
+    <t>CONTI CORTESIA</t>
+  </si>
+  <si>
+    <t>00916</t>
+  </si>
+  <si>
+    <t>DJTULA4185989</t>
+  </si>
+  <si>
+    <t>723241993</t>
+  </si>
+  <si>
+    <t>MEDUMI605525</t>
+  </si>
+  <si>
+    <t>MEDUMI744621</t>
+  </si>
+  <si>
+    <t>7232004137</t>
+  </si>
+  <si>
+    <t>DJDFWA4222672</t>
+  </si>
+  <si>
+    <t>00918</t>
+  </si>
+  <si>
+    <t>CPO HAMBURG</t>
+  </si>
+  <si>
+    <t>MEDU2411894</t>
+  </si>
+  <si>
+    <t>CMDUBRE0457859</t>
+  </si>
+  <si>
+    <t>7250578677</t>
+  </si>
+  <si>
+    <t>0VB2</t>
+  </si>
+  <si>
+    <t>APL HOLLAND</t>
+  </si>
+  <si>
+    <t>CMAU0813181</t>
+  </si>
+  <si>
+    <t>MAEU968692456</t>
+  </si>
+  <si>
+    <t>711096497</t>
+  </si>
+  <si>
+    <t>DJLRDA4220485</t>
+  </si>
+  <si>
+    <t>HASU1298540</t>
+  </si>
+  <si>
+    <t>MEDUSA078469</t>
+  </si>
+  <si>
+    <t>9072906230-01</t>
+  </si>
+  <si>
+    <t>919N</t>
+  </si>
+  <si>
+    <t>MSC CADIZ</t>
+  </si>
+  <si>
+    <t>MEDU7817361</t>
+  </si>
+  <si>
+    <t>MAEU968701770</t>
+  </si>
+  <si>
+    <t>719626575</t>
+  </si>
+  <si>
+    <t>DJMSYA4220184</t>
+  </si>
+  <si>
+    <t>UETU5033781</t>
+  </si>
+  <si>
+    <t>MAEU968790203</t>
+  </si>
+  <si>
+    <t>719626605</t>
+  </si>
+  <si>
+    <t>DJMSYA4220204</t>
+  </si>
+  <si>
+    <t>MSKU3599937</t>
+  </si>
+  <si>
+    <t>DJDFWA4222674</t>
+  </si>
+  <si>
+    <t>MEDU2703134</t>
+  </si>
+  <si>
+    <t>OOLU2027632570</t>
+  </si>
+  <si>
+    <t>7250571546</t>
+  </si>
+  <si>
+    <t>0PG3</t>
+  </si>
+  <si>
+    <t>OOLU1684013</t>
+  </si>
+  <si>
+    <t>OOLU0622378</t>
+  </si>
+  <si>
+    <t>MEDUHA278926</t>
+  </si>
+  <si>
+    <t>7232006529</t>
+  </si>
+  <si>
+    <t>DJDFWA4192845</t>
+  </si>
+  <si>
+    <t>00919</t>
+  </si>
+  <si>
+    <t>SEAMAX DARIEN</t>
+  </si>
+  <si>
+    <t>TEMU8298242</t>
+  </si>
+  <si>
+    <t>MAEU968728886</t>
+  </si>
+  <si>
+    <t>719626566</t>
+  </si>
+  <si>
+    <t>DJMSYA4176656</t>
+  </si>
+  <si>
+    <t>00915</t>
+  </si>
+  <si>
+    <t>MAERSK KENSINGTON</t>
+  </si>
+  <si>
+    <t>TCLU2284990</t>
+  </si>
+  <si>
+    <t>MAEU968707475</t>
+  </si>
+  <si>
+    <t>719626557</t>
+  </si>
+  <si>
+    <t>DJMSYA4176650</t>
+  </si>
+  <si>
+    <t>MRKU8906799</t>
+  </si>
+  <si>
+    <t>9071906612-01</t>
+  </si>
+  <si>
+    <t>TLLU5361321</t>
+  </si>
+  <si>
+    <t>HLCUHAM190512153</t>
+  </si>
+  <si>
+    <t>9071906638-01</t>
+  </si>
+  <si>
+    <t>066W</t>
+  </si>
+  <si>
+    <t>YORKTOWN EXPRESS</t>
+  </si>
+  <si>
+    <t>UETU5461687</t>
+  </si>
+  <si>
+    <t>MEDUB4831724</t>
+  </si>
+  <si>
+    <t>7221245813</t>
+  </si>
+  <si>
+    <t>917E</t>
+  </si>
+  <si>
+    <t>MSC STELLA</t>
+  </si>
+  <si>
+    <t>SEGU6260302</t>
+  </si>
+  <si>
+    <t>TEMU8429065</t>
+  </si>
+  <si>
+    <t>9071906619-01</t>
+  </si>
+  <si>
+    <t>BSIU9097537</t>
+  </si>
+  <si>
+    <t>HA243318</t>
+  </si>
+  <si>
+    <t>7221239922</t>
+  </si>
+  <si>
+    <t>00914</t>
+  </si>
+  <si>
+    <t>MSC SANA</t>
+  </si>
+  <si>
+    <t>MEDU8206897</t>
+  </si>
+  <si>
+    <t>147900178330</t>
+  </si>
+  <si>
+    <t>719268094</t>
+  </si>
+  <si>
+    <t>DJAUSA4200566</t>
+  </si>
+  <si>
+    <t>00048</t>
+  </si>
+  <si>
+    <t>COSCO SANTOS</t>
+  </si>
+  <si>
+    <t>CAIU6060170</t>
+  </si>
+  <si>
+    <t>MAEU582186849</t>
+  </si>
+  <si>
+    <t>9071906840-01</t>
+  </si>
+  <si>
+    <t>922W</t>
+  </si>
+  <si>
+    <t>MAERSK OHIO</t>
+  </si>
+  <si>
+    <t>PONU7606090</t>
+  </si>
+  <si>
+    <t>968781302</t>
+  </si>
+  <si>
+    <t>7232004117</t>
+  </si>
+  <si>
+    <t>DJDFWA4193586</t>
+  </si>
+  <si>
+    <t>00917</t>
+  </si>
+  <si>
+    <t>MAERSK SELETAR</t>
+  </si>
+  <si>
+    <t>SUDU1431444</t>
+  </si>
+  <si>
+    <t>7232004116</t>
+  </si>
+  <si>
+    <t>DJDFWA4193580</t>
+  </si>
+  <si>
+    <t>MRKU0771320</t>
+  </si>
+  <si>
+    <t>GGZ0981394</t>
+  </si>
+  <si>
+    <t>719268512</t>
+  </si>
+  <si>
+    <t>DJAUSA4205723</t>
+  </si>
+  <si>
+    <t>00031</t>
+  </si>
+  <si>
+    <t>COSCO JEDDAH</t>
+  </si>
+  <si>
+    <t>FCIU5499340</t>
+  </si>
+  <si>
+    <t>969037459</t>
+  </si>
+  <si>
+    <t>719268547</t>
+  </si>
+  <si>
+    <t>DJAUSA4205788</t>
+  </si>
+  <si>
+    <t>00921</t>
+  </si>
+  <si>
+    <t>CRETE I</t>
+  </si>
+  <si>
+    <t>MAEU9186341</t>
+  </si>
+  <si>
+    <t>581990664</t>
+  </si>
+  <si>
+    <t>7232005864</t>
+  </si>
+  <si>
+    <t>DJDFWA4191423</t>
+  </si>
+  <si>
+    <t>92200</t>
+  </si>
+  <si>
+    <t>PONU7199477</t>
+  </si>
+  <si>
+    <t>582338920</t>
+  </si>
+  <si>
+    <t>719268563</t>
+  </si>
+  <si>
+    <t>DJAUSA4205981</t>
+  </si>
+  <si>
+    <t>MRKU5672254</t>
+  </si>
+  <si>
+    <t>MAEU582132254</t>
+  </si>
+  <si>
+    <t>9071906442-01</t>
+  </si>
+  <si>
+    <t>921W</t>
+  </si>
+  <si>
+    <t>MAERSK IDAHO</t>
+  </si>
+  <si>
+    <t>MRKU0066911</t>
+  </si>
+  <si>
+    <t>MAEU581775364</t>
+  </si>
+  <si>
+    <t>9071906440-01</t>
+  </si>
+  <si>
+    <t>MRKU1042107</t>
+  </si>
+  <si>
+    <t>MAEU581991439</t>
+  </si>
+  <si>
+    <t>9071906443-01</t>
+  </si>
+  <si>
+    <t>SUDU6276762</t>
+  </si>
+  <si>
+    <t>MEDUB4831740</t>
+  </si>
+  <si>
+    <t>7221245808</t>
+  </si>
+  <si>
+    <t>MSCU7144182</t>
+  </si>
+  <si>
+    <t>DJAUSA4205983</t>
+  </si>
+  <si>
+    <t>MSKU0920621</t>
+  </si>
+  <si>
+    <t>DJDFWA4191430</t>
+  </si>
+  <si>
+    <t>TCNU8496844</t>
+  </si>
+  <si>
+    <t>DJAUSA4205977</t>
+  </si>
+  <si>
+    <t>MIEU0021157</t>
+  </si>
+  <si>
+    <t>969023175</t>
+  </si>
+  <si>
+    <t>719268532</t>
+  </si>
+  <si>
+    <t>DJAUSA4205760</t>
+  </si>
+  <si>
+    <t>00920</t>
+  </si>
+  <si>
+    <t>MAERSK ATLANTA</t>
+  </si>
+  <si>
+    <t>TGBU6688344</t>
+  </si>
+  <si>
+    <t>MEDUQD638688</t>
+  </si>
+  <si>
+    <t>7250576183</t>
+  </si>
+  <si>
+    <t>916E</t>
+  </si>
+  <si>
+    <t>MSC DAMLA</t>
+  </si>
+  <si>
+    <t>TGCU2134327</t>
+  </si>
+  <si>
+    <t>TGCU2134585</t>
+  </si>
+  <si>
+    <t>DJDFWA4191427</t>
+  </si>
+  <si>
+    <t>PONU7315392</t>
+  </si>
+  <si>
+    <t>HLCUEUR1904AYQN9</t>
+  </si>
+  <si>
+    <t>9071906623-01</t>
+  </si>
+  <si>
+    <t>TCLU8068290</t>
+  </si>
+  <si>
+    <t>9071906622-01</t>
+  </si>
+  <si>
+    <t>CAIU8087734</t>
+  </si>
+  <si>
+    <t>MAEU590489926</t>
+  </si>
+  <si>
+    <t>719626573</t>
+  </si>
+  <si>
+    <t>DJMSYA4205368</t>
+  </si>
+  <si>
+    <t>TRLU6022302</t>
+  </si>
+  <si>
+    <t>968809036</t>
+  </si>
+  <si>
+    <t>7232004141</t>
+  </si>
+  <si>
+    <t>DJDFWA4193588</t>
+  </si>
+  <si>
+    <t>HASU1422497</t>
+  </si>
+  <si>
+    <t>DJAUSA4205980</t>
+  </si>
+  <si>
+    <t>MRKU5099754</t>
+  </si>
+  <si>
+    <t>9071906617-01</t>
+  </si>
+  <si>
+    <t>HLBU1174742</t>
+  </si>
+  <si>
+    <t>9071906618-01</t>
+  </si>
+  <si>
+    <t>UACU5588018</t>
+  </si>
+  <si>
+    <t>MAEU968700756</t>
+  </si>
+  <si>
+    <t>711096585</t>
+  </si>
+  <si>
+    <t>DJLRDA4200823</t>
+  </si>
+  <si>
+    <t>MAERSK MONTANA</t>
+  </si>
+  <si>
+    <t>MRKU0291255</t>
+  </si>
+  <si>
+    <t>581469507</t>
+  </si>
+  <si>
+    <t>9078905267-01</t>
+  </si>
+  <si>
+    <t>MRKU8059251</t>
+  </si>
+  <si>
+    <t>MAEU582234047</t>
+  </si>
+  <si>
+    <t>9071906552-01</t>
+  </si>
+  <si>
+    <t>MSWU1028159</t>
+  </si>
+  <si>
+    <t>DJLRDA4200826</t>
+  </si>
+  <si>
+    <t>MSKU6945416</t>
+  </si>
+  <si>
+    <t>MAEU581503313</t>
+  </si>
+  <si>
+    <t>9071906202-01</t>
+  </si>
+  <si>
+    <t>918W</t>
+  </si>
+  <si>
+    <t>MSC CHARLESTON</t>
+  </si>
+  <si>
+    <t>MCAU8569678</t>
+  </si>
+  <si>
+    <t>MAEU581991501</t>
+  </si>
+  <si>
+    <t>9071906199-01</t>
+  </si>
+  <si>
+    <t>920W</t>
+  </si>
+  <si>
+    <t>MAERSK IOWA</t>
+  </si>
+  <si>
+    <t>HASU4516856</t>
+  </si>
+  <si>
+    <t>MAEU582171966</t>
+  </si>
+  <si>
+    <t>9071906437-01</t>
+  </si>
+  <si>
+    <t>MNBU3765363</t>
+  </si>
+  <si>
+    <t>MEDULE971600</t>
+  </si>
+  <si>
+    <t>9071906431-01</t>
+  </si>
+  <si>
+    <t>SZLU9310720</t>
+  </si>
+  <si>
+    <t>MEDUMI683621</t>
+  </si>
+  <si>
+    <t>723242186</t>
+  </si>
+  <si>
+    <t>DJTULA4186017</t>
+  </si>
+  <si>
+    <t>MSC BUSAN</t>
+  </si>
+  <si>
+    <t>MEDU3856950</t>
+  </si>
+  <si>
+    <t>HLCUHAM190525337</t>
+  </si>
+  <si>
+    <t>9071906636-01</t>
+  </si>
+  <si>
+    <t>UACU5346729</t>
+  </si>
+  <si>
+    <t>968777419</t>
+  </si>
+  <si>
+    <t>7232003717</t>
+  </si>
+  <si>
+    <t>DJDFWA4179331</t>
+  </si>
+  <si>
+    <t>MSKU6856094</t>
+  </si>
+  <si>
+    <t>968786794</t>
+  </si>
+  <si>
+    <t>7232003656</t>
+  </si>
+  <si>
+    <t>DJDFWA4179328</t>
+  </si>
+  <si>
+    <t>TGBU6653902</t>
+  </si>
+  <si>
+    <t>581872660</t>
+  </si>
+  <si>
+    <t>9071906201-01</t>
+  </si>
+  <si>
+    <t>MNBU0189011</t>
+  </si>
+  <si>
+    <t>9071906639-01</t>
+  </si>
+  <si>
+    <t>CPSU6464444</t>
+  </si>
+  <si>
+    <t>582450132</t>
+  </si>
+  <si>
+    <t>719268559</t>
+  </si>
+  <si>
+    <t>DJAUSA4205804</t>
+  </si>
+  <si>
+    <t>MAERSK DETROIT</t>
+  </si>
+  <si>
+    <t>MRSU3922336</t>
+  </si>
+  <si>
+    <t>9071906613-01</t>
+  </si>
+  <si>
+    <t>HLBU2024670</t>
+  </si>
+  <si>
+    <t>968797792</t>
+  </si>
+  <si>
+    <t>7232003868</t>
+  </si>
+  <si>
+    <t>DJDFWA4179333</t>
+  </si>
+  <si>
+    <t>MSKU9768757</t>
+  </si>
+  <si>
+    <t>968786779</t>
+  </si>
+  <si>
+    <t>7232003652</t>
+  </si>
+  <si>
+    <t>DJDFWA4179314</t>
+  </si>
+  <si>
+    <t>MRKU2380454</t>
+  </si>
+  <si>
+    <t>DJAUSA4205984</t>
+  </si>
+  <si>
+    <t>UESU4553912</t>
+  </si>
+  <si>
+    <t>DJAUSA4205982</t>
+  </si>
+  <si>
+    <t>MRKU5804598</t>
+  </si>
+  <si>
+    <t>DJAUSA4205979</t>
+  </si>
+  <si>
+    <t>MRKU4846372</t>
+  </si>
+  <si>
+    <t>DJLRDA4200824</t>
+  </si>
+  <si>
+    <t>MRKU0538664</t>
+  </si>
+  <si>
+    <t>HLCUEUR1904BEGQ4</t>
+  </si>
+  <si>
+    <t>9071906652-01</t>
+  </si>
+  <si>
+    <t>123W</t>
+  </si>
+  <si>
+    <t>MOL GRATITUDE</t>
+  </si>
+  <si>
+    <t>TCLU6668931</t>
+  </si>
+  <si>
+    <t>9071906651-01</t>
+  </si>
+  <si>
+    <t>TGHU6265473</t>
+  </si>
+  <si>
+    <t>582452553</t>
+  </si>
+  <si>
+    <t>719268536</t>
+  </si>
+  <si>
+    <t>DJAUSA4205768</t>
+  </si>
+  <si>
+    <t>TCKU6031946</t>
+  </si>
+  <si>
+    <t>581975024</t>
+  </si>
+  <si>
+    <t>7232004719</t>
+  </si>
+  <si>
+    <t>DJDFWA4192769</t>
+  </si>
+  <si>
+    <t>PONU0075324</t>
+  </si>
+  <si>
+    <t>MEDUQD732671</t>
+  </si>
+  <si>
+    <t>9072906068-01</t>
+  </si>
+  <si>
+    <t>918E</t>
+  </si>
+  <si>
+    <t>CAPE PIONEER</t>
+  </si>
+  <si>
+    <t>CAXU9375547</t>
+  </si>
+  <si>
+    <t>9078905265-01</t>
+  </si>
+  <si>
+    <t>MSKU5733942</t>
+  </si>
+  <si>
+    <t>DJAUSA4205978</t>
+  </si>
+  <si>
+    <t>MRKU2733401</t>
+  </si>
+  <si>
+    <t>582524929</t>
+  </si>
+  <si>
+    <t>719268576</t>
+  </si>
+  <si>
+    <t>DJAUSA4206004</t>
+  </si>
+  <si>
+    <t>MSKU6775120</t>
+  </si>
+  <si>
+    <t>MEDUN2330839</t>
+  </si>
+  <si>
+    <t>9077905572-01</t>
+  </si>
+  <si>
+    <t>MSCU5576470</t>
+  </si>
+  <si>
+    <t>MAEU581960384</t>
+  </si>
+  <si>
+    <t>9071906444-01</t>
+  </si>
+  <si>
+    <t>MRKU4099929</t>
+  </si>
+  <si>
+    <t>582431794</t>
+  </si>
+  <si>
+    <t>719268524</t>
+  </si>
+  <si>
+    <t>DJAUSA4205736</t>
+  </si>
+  <si>
+    <t>MRKU4797576</t>
+  </si>
+  <si>
+    <t>MAEU968983733</t>
+  </si>
+  <si>
+    <t>719268461</t>
+  </si>
+  <si>
+    <t>00922</t>
+  </si>
+  <si>
+    <t>SM SEATTLE</t>
+  </si>
+  <si>
+    <t>MSKU6797849</t>
+  </si>
+  <si>
+    <t>CADU4008256</t>
+  </si>
+  <si>
+    <t>PONU1713948</t>
+  </si>
+  <si>
+    <t>TGHU4511860</t>
+  </si>
+  <si>
+    <t>MRKU0944914</t>
+  </si>
+  <si>
+    <t>MEDUL0120864</t>
+  </si>
+  <si>
+    <t>9071906976-01</t>
+  </si>
+  <si>
+    <t>TLLU5175836</t>
+  </si>
+  <si>
+    <t>HLCUEUR1904BCVS3</t>
+  </si>
+  <si>
+    <t>9071906994-01</t>
+  </si>
+  <si>
+    <t>050W</t>
+  </si>
+  <si>
+    <t>MOL GLIDE</t>
+  </si>
+  <si>
+    <t>HLBU2058393</t>
+  </si>
+  <si>
+    <t>MEDUL0120872</t>
+  </si>
+  <si>
+    <t>9071906968-01</t>
+  </si>
+  <si>
+    <t>MEDU8882947</t>
+  </si>
+  <si>
+    <t>HLCUHAM190522529</t>
+  </si>
+  <si>
+    <t>9071906965-01</t>
+  </si>
+  <si>
+    <t>HAMU1312970</t>
+  </si>
+  <si>
+    <t>HLCUEUR1904AZYA7</t>
+  </si>
+  <si>
+    <t>9071906963-01</t>
+  </si>
+  <si>
+    <t>TGBU6242769</t>
+  </si>
+  <si>
+    <t>HLCUEUR1904BEHE8</t>
+  </si>
+  <si>
+    <t>9071906958-01</t>
+  </si>
+  <si>
+    <t>UASU1072386</t>
+  </si>
+  <si>
+    <t>HLCUHAM190507290</t>
+  </si>
+  <si>
+    <t>9071906960-01</t>
+  </si>
+  <si>
+    <t>HLXU8581731</t>
+  </si>
+  <si>
+    <t>HLCUHAM190453036</t>
+  </si>
+  <si>
+    <t>9071906954-01</t>
+  </si>
+  <si>
+    <t>08W18</t>
+  </si>
+  <si>
+    <t>ALLEGORIA</t>
+  </si>
+  <si>
+    <t>HLXU8439619</t>
+  </si>
+  <si>
+    <t>MEDUBN849600</t>
+  </si>
+  <si>
+    <t>9071906908-01</t>
+  </si>
+  <si>
+    <t>TCNU1545551</t>
+  </si>
+  <si>
+    <t>MSCUUW144911</t>
+  </si>
+  <si>
+    <t>9071906907-01</t>
+  </si>
+  <si>
+    <t>TGHU6882304</t>
+  </si>
+  <si>
+    <t>582450133</t>
+  </si>
+  <si>
+    <t>719268544</t>
+  </si>
+  <si>
+    <t>DJAUSA4205775</t>
+  </si>
+  <si>
+    <t>MRKU3589639</t>
+  </si>
+  <si>
+    <t>582509874</t>
+  </si>
+  <si>
+    <t>719268528</t>
+  </si>
+  <si>
+    <t>DJAUSA4205747</t>
+  </si>
+  <si>
+    <t>MRSU3232639</t>
+  </si>
+  <si>
+    <t>582430853</t>
+  </si>
+  <si>
+    <t>719268526</t>
+  </si>
+  <si>
+    <t>DJAUSA4205740</t>
+  </si>
+  <si>
+    <t>MRKU4240282</t>
+  </si>
+  <si>
+    <t>MEDURO092064</t>
+  </si>
+  <si>
+    <t>9078905053-01</t>
+  </si>
+  <si>
+    <t>MF917W</t>
+  </si>
+  <si>
+    <t>MSC LUCY</t>
+  </si>
+  <si>
+    <t>MEDU7641143</t>
+  </si>
+  <si>
+    <t>MEDUL0120880</t>
+  </si>
+  <si>
+    <t>9071906970-01</t>
+  </si>
+  <si>
+    <t>BMOU6565618</t>
+  </si>
+  <si>
+    <t>HLCUHAM190427535</t>
+  </si>
+  <si>
+    <t>9071906956-01</t>
+  </si>
+  <si>
+    <t>CPSU6465902</t>
+  </si>
+  <si>
+    <t>9071906957-01</t>
+  </si>
+  <si>
+    <t>HLBU1760300</t>
+  </si>
+  <si>
+    <t>582369690</t>
+  </si>
+  <si>
+    <t>719268530</t>
+  </si>
+  <si>
+    <t>DJAUSA4205752</t>
+  </si>
+  <si>
+    <t>MSKU9509843</t>
+  </si>
+  <si>
+    <t>9078905266-01</t>
+  </si>
+  <si>
+    <t>MRKU6562354</t>
+  </si>
+  <si>
+    <t>MEDUMI682920</t>
+  </si>
+  <si>
+    <t>7232003395</t>
+  </si>
+  <si>
+    <t>DJDFWA4205679</t>
+  </si>
+  <si>
+    <t>MEDU6269772</t>
+  </si>
+  <si>
+    <t>MEDUL0122498</t>
+  </si>
+  <si>
+    <t>9071906972-01</t>
+  </si>
+  <si>
+    <t>MEDU4989367</t>
+  </si>
+  <si>
+    <t>DJTULA4186016</t>
+  </si>
+  <si>
+    <t>MEDU3493351</t>
+  </si>
+  <si>
+    <t>MEDUL0123157</t>
+  </si>
+  <si>
+    <t>9071906973-01</t>
+  </si>
+  <si>
+    <t>MEDU4909905</t>
+  </si>
+  <si>
+    <t>9071906961-01</t>
+  </si>
+  <si>
+    <t>TCKU6029722</t>
+  </si>
+  <si>
+    <t>MEDUL0123165</t>
+  </si>
+  <si>
+    <t>9071906974-01</t>
+  </si>
+  <si>
+    <t>MEDU7961682</t>
+  </si>
+  <si>
+    <t>9071906962-01</t>
+  </si>
+  <si>
+    <t>SLSU8062247</t>
+  </si>
+  <si>
+    <t>9078905269-01</t>
+  </si>
+  <si>
+    <t>MSKU5205457</t>
+  </si>
+  <si>
+    <t>MEDUL0122480</t>
+  </si>
+  <si>
+    <t>9071906975-01</t>
+  </si>
+  <si>
+    <t>MEDU7991497</t>
+  </si>
+  <si>
+    <t>DJDFWA4192844</t>
+  </si>
+  <si>
+    <t>MSCU5475073</t>
+  </si>
+  <si>
+    <t>711852214</t>
+  </si>
+  <si>
+    <t>9071906950-01</t>
+  </si>
+  <si>
+    <t>917W</t>
+  </si>
+  <si>
+    <t>TEXU1535259</t>
+  </si>
+  <si>
+    <t>MAEU582086327</t>
+  </si>
+  <si>
+    <t>9071907017-01</t>
+  </si>
+  <si>
+    <t>MSC TORONTO</t>
+  </si>
+  <si>
+    <t>MNBU0347462</t>
+  </si>
+  <si>
+    <t>MEDUBN697017</t>
+  </si>
+  <si>
+    <t>7232005456</t>
+  </si>
+  <si>
+    <t>DJDFWA4192783</t>
+  </si>
+  <si>
+    <t>MEDU9402127</t>
+  </si>
+  <si>
+    <t>MAEU581675942</t>
+  </si>
+  <si>
+    <t>9077905858-01</t>
+  </si>
+  <si>
+    <t>919W</t>
+  </si>
+  <si>
+    <t>HASU1411023</t>
+  </si>
+  <si>
+    <t>DJTULA4185990</t>
+  </si>
+  <si>
+    <t>MSCU3974540</t>
   </si>
 </sst>
 </file>
@@ -369,10 +1626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G125"/>
+      <selection activeCell="A9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,6 +1671,2272 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>428</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" t="s">
+        <v>426</v>
+      </c>
+      <c r="D10" t="s">
+        <v>425</v>
+      </c>
+      <c r="F10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>423</v>
+      </c>
+      <c r="B11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" t="s">
+        <v>422</v>
+      </c>
+      <c r="E11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" t="s">
+        <v>417</v>
+      </c>
+      <c r="F12" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s">
+        <v>414</v>
+      </c>
+      <c r="D13" t="s">
+        <v>413</v>
+      </c>
+      <c r="F13" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>411</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>409</v>
+      </c>
+      <c r="B15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" t="s">
+        <v>408</v>
+      </c>
+      <c r="F15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>406</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>405</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>404</v>
+      </c>
+      <c r="B17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C17" t="s">
+        <v>276</v>
+      </c>
+      <c r="D17" t="s">
+        <v>403</v>
+      </c>
+      <c r="F17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>402</v>
+      </c>
+      <c r="B18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D18" t="s">
+        <v>401</v>
+      </c>
+      <c r="F18" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>399</v>
+      </c>
+      <c r="B19" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19" t="s">
+        <v>398</v>
+      </c>
+      <c r="F19" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>397</v>
+      </c>
+      <c r="B20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" t="s">
+        <v>396</v>
+      </c>
+      <c r="F20" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>394</v>
+      </c>
+      <c r="B21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" t="s">
+        <v>393</v>
+      </c>
+      <c r="E21" t="s">
+        <v>231</v>
+      </c>
+      <c r="F21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>392</v>
+      </c>
+      <c r="B22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" t="s">
+        <v>391</v>
+      </c>
+      <c r="F22" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>389</v>
+      </c>
+      <c r="B23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" t="s">
+        <v>388</v>
+      </c>
+      <c r="E23" t="s">
+        <v>387</v>
+      </c>
+      <c r="F23" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>385</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>384</v>
+      </c>
+      <c r="F24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>383</v>
+      </c>
+      <c r="B25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" t="s">
+        <v>382</v>
+      </c>
+      <c r="E25" t="s">
+        <v>381</v>
+      </c>
+      <c r="F25" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>379</v>
+      </c>
+      <c r="B26" t="s">
+        <v>277</v>
+      </c>
+      <c r="C26" t="s">
+        <v>276</v>
+      </c>
+      <c r="D26" t="s">
+        <v>378</v>
+      </c>
+      <c r="F26" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>377</v>
+      </c>
+      <c r="B27" t="s">
+        <v>347</v>
+      </c>
+      <c r="C27" t="s">
+        <v>346</v>
+      </c>
+      <c r="D27" t="s">
+        <v>376</v>
+      </c>
+      <c r="F27" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>374</v>
+      </c>
+      <c r="B28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C28" t="s">
+        <v>216</v>
+      </c>
+      <c r="D28" t="s">
+        <v>373</v>
+      </c>
+      <c r="F28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>371</v>
+      </c>
+      <c r="B29" t="s">
+        <v>370</v>
+      </c>
+      <c r="C29" t="s">
+        <v>369</v>
+      </c>
+      <c r="D29" t="s">
+        <v>368</v>
+      </c>
+      <c r="F29" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>366</v>
+      </c>
+      <c r="B30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" t="s">
+        <v>365</v>
+      </c>
+      <c r="E30" t="s">
+        <v>364</v>
+      </c>
+      <c r="F30" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>362</v>
+      </c>
+      <c r="B31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" t="s">
+        <v>361</v>
+      </c>
+      <c r="E31" t="s">
+        <v>360</v>
+      </c>
+      <c r="F31" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>358</v>
+      </c>
+      <c r="B32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" t="s">
+        <v>357</v>
+      </c>
+      <c r="E32" t="s">
+        <v>356</v>
+      </c>
+      <c r="F32" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>354</v>
+      </c>
+      <c r="B33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D33" t="s">
+        <v>353</v>
+      </c>
+      <c r="F33" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>351</v>
+      </c>
+      <c r="B34" t="s">
+        <v>222</v>
+      </c>
+      <c r="C34" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" t="s">
+        <v>350</v>
+      </c>
+      <c r="F34" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>348</v>
+      </c>
+      <c r="B35" t="s">
+        <v>347</v>
+      </c>
+      <c r="C35" t="s">
+        <v>346</v>
+      </c>
+      <c r="D35" t="s">
+        <v>345</v>
+      </c>
+      <c r="F35" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>343</v>
+      </c>
+      <c r="B36" t="s">
+        <v>277</v>
+      </c>
+      <c r="C36" t="s">
+        <v>276</v>
+      </c>
+      <c r="D36" t="s">
+        <v>342</v>
+      </c>
+      <c r="F36" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>340</v>
+      </c>
+      <c r="B37" t="s">
+        <v>277</v>
+      </c>
+      <c r="C37" t="s">
+        <v>276</v>
+      </c>
+      <c r="D37" t="s">
+        <v>339</v>
+      </c>
+      <c r="F37" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>337</v>
+      </c>
+      <c r="B38" t="s">
+        <v>277</v>
+      </c>
+      <c r="C38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D38" t="s">
+        <v>336</v>
+      </c>
+      <c r="F38" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>334</v>
+      </c>
+      <c r="B39" t="s">
+        <v>277</v>
+      </c>
+      <c r="C39" t="s">
+        <v>276</v>
+      </c>
+      <c r="D39" t="s">
+        <v>333</v>
+      </c>
+      <c r="F39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>331</v>
+      </c>
+      <c r="B40" t="s">
+        <v>217</v>
+      </c>
+      <c r="C40" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" t="s">
+        <v>330</v>
+      </c>
+      <c r="F40" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>328</v>
+      </c>
+      <c r="B41" t="s">
+        <v>327</v>
+      </c>
+      <c r="C41" t="s">
+        <v>326</v>
+      </c>
+      <c r="D41" t="s">
+        <v>325</v>
+      </c>
+      <c r="F41" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>323</v>
+      </c>
+      <c r="B42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" t="s">
+        <v>322</v>
+      </c>
+      <c r="F42" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>320</v>
+      </c>
+      <c r="B43" t="s">
+        <v>315</v>
+      </c>
+      <c r="C43" t="s">
+        <v>314</v>
+      </c>
+      <c r="D43" t="s">
+        <v>313</v>
+      </c>
+      <c r="E43" t="s">
+        <v>313</v>
+      </c>
+      <c r="F43" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>319</v>
+      </c>
+      <c r="B44" t="s">
+        <v>315</v>
+      </c>
+      <c r="C44" t="s">
+        <v>314</v>
+      </c>
+      <c r="D44" t="s">
+        <v>313</v>
+      </c>
+      <c r="E44" t="s">
+        <v>313</v>
+      </c>
+      <c r="F44" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>318</v>
+      </c>
+      <c r="B45" t="s">
+        <v>315</v>
+      </c>
+      <c r="C45" t="s">
+        <v>314</v>
+      </c>
+      <c r="D45" t="s">
+        <v>313</v>
+      </c>
+      <c r="E45" t="s">
+        <v>313</v>
+      </c>
+      <c r="F45" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>317</v>
+      </c>
+      <c r="B46" t="s">
+        <v>315</v>
+      </c>
+      <c r="C46" t="s">
+        <v>314</v>
+      </c>
+      <c r="D46" t="s">
+        <v>313</v>
+      </c>
+      <c r="E46" t="s">
+        <v>313</v>
+      </c>
+      <c r="F46" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>316</v>
+      </c>
+      <c r="B47" t="s">
+        <v>315</v>
+      </c>
+      <c r="C47" t="s">
+        <v>314</v>
+      </c>
+      <c r="D47" t="s">
+        <v>313</v>
+      </c>
+      <c r="E47" t="s">
+        <v>313</v>
+      </c>
+      <c r="F47" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>311</v>
+      </c>
+      <c r="B48" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" t="s">
+        <v>310</v>
+      </c>
+      <c r="E48" t="s">
+        <v>309</v>
+      </c>
+      <c r="F48" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>307</v>
+      </c>
+      <c r="B49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" t="s">
+        <v>306</v>
+      </c>
+      <c r="F49" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>304</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" t="s">
+        <v>303</v>
+      </c>
+      <c r="F50" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>301</v>
+      </c>
+      <c r="B51" t="s">
+        <v>254</v>
+      </c>
+      <c r="C51" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" t="s">
+        <v>300</v>
+      </c>
+      <c r="E51" t="s">
+        <v>299</v>
+      </c>
+      <c r="F51" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>297</v>
+      </c>
+      <c r="B52" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" t="s">
+        <v>296</v>
+      </c>
+      <c r="E52" t="s">
+        <v>145</v>
+      </c>
+      <c r="F52" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>295</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>294</v>
+      </c>
+      <c r="F53" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>293</v>
+      </c>
+      <c r="B54" t="s">
+        <v>292</v>
+      </c>
+      <c r="C54" t="s">
+        <v>291</v>
+      </c>
+      <c r="D54" t="s">
+        <v>290</v>
+      </c>
+      <c r="F54" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>288</v>
+      </c>
+      <c r="B55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" t="s">
+        <v>287</v>
+      </c>
+      <c r="E55" t="s">
+        <v>286</v>
+      </c>
+      <c r="F55" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>284</v>
+      </c>
+      <c r="B56" t="s">
+        <v>254</v>
+      </c>
+      <c r="C56" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" t="s">
+        <v>283</v>
+      </c>
+      <c r="E56" t="s">
+        <v>282</v>
+      </c>
+      <c r="F56" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>280</v>
+      </c>
+      <c r="B57" t="s">
+        <v>277</v>
+      </c>
+      <c r="C57" t="s">
+        <v>276</v>
+      </c>
+      <c r="D57" t="s">
+        <v>279</v>
+      </c>
+      <c r="F57" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>278</v>
+      </c>
+      <c r="B58" t="s">
+        <v>277</v>
+      </c>
+      <c r="C58" t="s">
+        <v>276</v>
+      </c>
+      <c r="D58" t="s">
+        <v>275</v>
+      </c>
+      <c r="F58" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>273</v>
+      </c>
+      <c r="B59" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" t="s">
+        <v>272</v>
+      </c>
+      <c r="E59" t="s">
+        <v>202</v>
+      </c>
+      <c r="F59" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>271</v>
+      </c>
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" t="s">
+        <v>270</v>
+      </c>
+      <c r="E60" t="s">
+        <v>145</v>
+      </c>
+      <c r="F60" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>269</v>
+      </c>
+      <c r="B61" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" t="s">
+        <v>268</v>
+      </c>
+      <c r="E61" t="s">
+        <v>145</v>
+      </c>
+      <c r="F61" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>267</v>
+      </c>
+      <c r="B62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" t="s">
+        <v>266</v>
+      </c>
+      <c r="E62" t="s">
+        <v>145</v>
+      </c>
+      <c r="F62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>265</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" t="s">
+        <v>264</v>
+      </c>
+      <c r="E63" t="s">
+        <v>263</v>
+      </c>
+      <c r="F63" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>261</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" t="s">
+        <v>260</v>
+      </c>
+      <c r="E64" t="s">
+        <v>259</v>
+      </c>
+      <c r="F64" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>257</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="s">
+        <v>256</v>
+      </c>
+      <c r="F65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>255</v>
+      </c>
+      <c r="B66" t="s">
+        <v>254</v>
+      </c>
+      <c r="C66" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" t="s">
+        <v>253</v>
+      </c>
+      <c r="E66" t="s">
+        <v>252</v>
+      </c>
+      <c r="F66" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>250</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" t="s">
+        <v>91</v>
+      </c>
+      <c r="D67" t="s">
+        <v>249</v>
+      </c>
+      <c r="F67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>248</v>
+      </c>
+      <c r="B68" t="s">
+        <v>222</v>
+      </c>
+      <c r="C68" t="s">
+        <v>221</v>
+      </c>
+      <c r="D68" t="s">
+        <v>247</v>
+      </c>
+      <c r="F68" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>245</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" t="s">
+        <v>244</v>
+      </c>
+      <c r="E69" t="s">
+        <v>243</v>
+      </c>
+      <c r="F69" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>241</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" t="s">
+        <v>240</v>
+      </c>
+      <c r="E70" t="s">
+        <v>239</v>
+      </c>
+      <c r="F70" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>237</v>
+      </c>
+      <c r="B71" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" t="s">
+        <v>236</v>
+      </c>
+      <c r="F71" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>234</v>
+      </c>
+      <c r="B72" t="s">
+        <v>233</v>
+      </c>
+      <c r="C72" t="s">
+        <v>121</v>
+      </c>
+      <c r="D72" t="s">
+        <v>232</v>
+      </c>
+      <c r="E72" t="s">
+        <v>231</v>
+      </c>
+      <c r="F72" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>229</v>
+      </c>
+      <c r="B73" t="s">
+        <v>222</v>
+      </c>
+      <c r="C73" t="s">
+        <v>221</v>
+      </c>
+      <c r="D73" t="s">
+        <v>228</v>
+      </c>
+      <c r="F73" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>226</v>
+      </c>
+      <c r="B74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" t="s">
+        <v>150</v>
+      </c>
+      <c r="D74" t="s">
+        <v>225</v>
+      </c>
+      <c r="F74" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>223</v>
+      </c>
+      <c r="B75" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" t="s">
+        <v>221</v>
+      </c>
+      <c r="D75" t="s">
+        <v>220</v>
+      </c>
+      <c r="F75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>218</v>
+      </c>
+      <c r="B76" t="s">
+        <v>217</v>
+      </c>
+      <c r="C76" t="s">
+        <v>216</v>
+      </c>
+      <c r="D76" t="s">
+        <v>215</v>
+      </c>
+      <c r="F76" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>213</v>
+      </c>
+      <c r="B77" t="s">
+        <v>204</v>
+      </c>
+      <c r="C77" t="s">
+        <v>74</v>
+      </c>
+      <c r="D77" t="s">
+        <v>212</v>
+      </c>
+      <c r="E77" t="s">
+        <v>202</v>
+      </c>
+      <c r="F77" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>211</v>
+      </c>
+      <c r="B78" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" t="s">
+        <v>115</v>
+      </c>
+      <c r="D78" t="s">
+        <v>210</v>
+      </c>
+      <c r="F78" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>208</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>207</v>
+      </c>
+      <c r="F79" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>205</v>
+      </c>
+      <c r="B80" t="s">
+        <v>204</v>
+      </c>
+      <c r="C80" t="s">
+        <v>74</v>
+      </c>
+      <c r="D80" t="s">
+        <v>203</v>
+      </c>
+      <c r="E80" t="s">
+        <v>202</v>
+      </c>
+      <c r="F80" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>200</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" t="s">
+        <v>199</v>
+      </c>
+      <c r="F81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>198</v>
+      </c>
+      <c r="B82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" t="s">
+        <v>197</v>
+      </c>
+      <c r="F82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>196</v>
+      </c>
+      <c r="B83" t="s">
+        <v>137</v>
+      </c>
+      <c r="C83" t="s">
+        <v>136</v>
+      </c>
+      <c r="D83" t="s">
+        <v>195</v>
+      </c>
+      <c r="E83" t="s">
+        <v>145</v>
+      </c>
+      <c r="F83" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>194</v>
+      </c>
+      <c r="B84" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" t="s">
+        <v>121</v>
+      </c>
+      <c r="D84" t="s">
+        <v>193</v>
+      </c>
+      <c r="E84" t="s">
+        <v>192</v>
+      </c>
+      <c r="F84" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>190</v>
+      </c>
+      <c r="B85" t="s">
+        <v>97</v>
+      </c>
+      <c r="C85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D85" t="s">
+        <v>189</v>
+      </c>
+      <c r="E85" t="s">
+        <v>188</v>
+      </c>
+      <c r="F85" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>186</v>
+      </c>
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" t="s">
+        <v>185</v>
+      </c>
+      <c r="F86" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>184</v>
+      </c>
+      <c r="B87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" t="s">
+        <v>183</v>
+      </c>
+      <c r="F87" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" t="s">
+        <v>142</v>
+      </c>
+      <c r="D88" t="s">
+        <v>180</v>
+      </c>
+      <c r="E88" t="s">
+        <v>140</v>
+      </c>
+      <c r="F88" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" t="s">
+        <v>176</v>
+      </c>
+      <c r="D89" t="s">
+        <v>175</v>
+      </c>
+      <c r="E89" t="s">
+        <v>175</v>
+      </c>
+      <c r="F89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90" t="s">
+        <v>176</v>
+      </c>
+      <c r="D90" t="s">
+        <v>175</v>
+      </c>
+      <c r="E90" t="s">
+        <v>175</v>
+      </c>
+      <c r="F90" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>173</v>
+      </c>
+      <c r="B91" t="s">
+        <v>172</v>
+      </c>
+      <c r="C91" t="s">
+        <v>171</v>
+      </c>
+      <c r="D91" t="s">
+        <v>170</v>
+      </c>
+      <c r="E91" t="s">
+        <v>169</v>
+      </c>
+      <c r="F91" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>167</v>
+      </c>
+      <c r="B92" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" t="s">
+        <v>136</v>
+      </c>
+      <c r="D92" t="s">
+        <v>166</v>
+      </c>
+      <c r="E92" t="s">
+        <v>145</v>
+      </c>
+      <c r="F92" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>165</v>
+      </c>
+      <c r="B93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C93" t="s">
+        <v>142</v>
+      </c>
+      <c r="D93" t="s">
+        <v>164</v>
+      </c>
+      <c r="E93" t="s">
+        <v>140</v>
+      </c>
+      <c r="F93" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>163</v>
+      </c>
+      <c r="B94" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" t="s">
+        <v>136</v>
+      </c>
+      <c r="D94" t="s">
+        <v>162</v>
+      </c>
+      <c r="E94" t="s">
+        <v>145</v>
+      </c>
+      <c r="F94" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>161</v>
+      </c>
+      <c r="B95" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" t="s">
+        <v>96</v>
+      </c>
+      <c r="D95" t="s">
+        <v>160</v>
+      </c>
+      <c r="E95" t="s">
+        <v>160</v>
+      </c>
+      <c r="F95" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>158</v>
+      </c>
+      <c r="B96" t="s">
+        <v>151</v>
+      </c>
+      <c r="C96" t="s">
+        <v>150</v>
+      </c>
+      <c r="D96" t="s">
+        <v>157</v>
+      </c>
+      <c r="F96" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>155</v>
+      </c>
+      <c r="B97" t="s">
+        <v>151</v>
+      </c>
+      <c r="C97" t="s">
+        <v>150</v>
+      </c>
+      <c r="D97" t="s">
+        <v>154</v>
+      </c>
+      <c r="F97" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>152</v>
+      </c>
+      <c r="B98" t="s">
+        <v>151</v>
+      </c>
+      <c r="C98" t="s">
+        <v>150</v>
+      </c>
+      <c r="D98" t="s">
+        <v>149</v>
+      </c>
+      <c r="F98" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>147</v>
+      </c>
+      <c r="B99" t="s">
+        <v>137</v>
+      </c>
+      <c r="C99" t="s">
+        <v>136</v>
+      </c>
+      <c r="D99" t="s">
+        <v>146</v>
+      </c>
+      <c r="E99" t="s">
+        <v>145</v>
+      </c>
+      <c r="F99" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>143</v>
+      </c>
+      <c r="B100" t="s">
+        <v>116</v>
+      </c>
+      <c r="C100" t="s">
+        <v>142</v>
+      </c>
+      <c r="D100" t="s">
+        <v>141</v>
+      </c>
+      <c r="E100" t="s">
+        <v>140</v>
+      </c>
+      <c r="F100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>138</v>
+      </c>
+      <c r="B101" t="s">
+        <v>137</v>
+      </c>
+      <c r="C101" t="s">
+        <v>136</v>
+      </c>
+      <c r="D101" t="s">
+        <v>135</v>
+      </c>
+      <c r="E101" t="s">
+        <v>134</v>
+      </c>
+      <c r="F101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>132</v>
+      </c>
+      <c r="B102" t="s">
+        <v>131</v>
+      </c>
+      <c r="C102" t="s">
+        <v>130</v>
+      </c>
+      <c r="D102" t="s">
+        <v>129</v>
+      </c>
+      <c r="E102" t="s">
+        <v>128</v>
+      </c>
+      <c r="F102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>126</v>
+      </c>
+      <c r="B103" t="s">
+        <v>122</v>
+      </c>
+      <c r="C103" t="s">
+        <v>121</v>
+      </c>
+      <c r="D103" t="s">
+        <v>125</v>
+      </c>
+      <c r="E103" t="s">
+        <v>124</v>
+      </c>
+      <c r="F103" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>123</v>
+      </c>
+      <c r="B104" t="s">
+        <v>122</v>
+      </c>
+      <c r="C104" t="s">
+        <v>121</v>
+      </c>
+      <c r="D104" t="s">
+        <v>120</v>
+      </c>
+      <c r="E104" t="s">
+        <v>119</v>
+      </c>
+      <c r="F104" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>117</v>
+      </c>
+      <c r="B105" t="s">
+        <v>116</v>
+      </c>
+      <c r="C105" t="s">
+        <v>115</v>
+      </c>
+      <c r="D105" t="s">
+        <v>114</v>
+      </c>
+      <c r="F105" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" t="s">
+        <v>110</v>
+      </c>
+      <c r="D106" t="s">
+        <v>109</v>
+      </c>
+      <c r="E106" t="s">
+        <v>108</v>
+      </c>
+      <c r="F106" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>105</v>
+      </c>
+      <c r="C107" t="s">
+        <v>104</v>
+      </c>
+      <c r="D107" t="s">
+        <v>103</v>
+      </c>
+      <c r="E107" t="s">
+        <v>103</v>
+      </c>
+      <c r="F107" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>101</v>
+      </c>
+      <c r="B108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" t="s">
+        <v>100</v>
+      </c>
+      <c r="F108" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>99</v>
+      </c>
+      <c r="B109" t="s">
+        <v>97</v>
+      </c>
+      <c r="C109" t="s">
+        <v>96</v>
+      </c>
+      <c r="D109" t="s">
+        <v>95</v>
+      </c>
+      <c r="E109" t="s">
+        <v>95</v>
+      </c>
+      <c r="F109" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>98</v>
+      </c>
+      <c r="B110" t="s">
+        <v>97</v>
+      </c>
+      <c r="C110" t="s">
+        <v>96</v>
+      </c>
+      <c r="D110" t="s">
+        <v>95</v>
+      </c>
+      <c r="E110" t="s">
+        <v>95</v>
+      </c>
+      <c r="F110" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>93</v>
+      </c>
+      <c r="B111" t="s">
+        <v>92</v>
+      </c>
+      <c r="C111" t="s">
+        <v>91</v>
+      </c>
+      <c r="D111" t="s">
+        <v>90</v>
+      </c>
+      <c r="F111" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>88</v>
+      </c>
+      <c r="B112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" t="s">
+        <v>87</v>
+      </c>
+      <c r="F112" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>86</v>
+      </c>
+      <c r="B113" t="s">
+        <v>81</v>
+      </c>
+      <c r="C113" t="s">
+        <v>80</v>
+      </c>
+      <c r="D113" t="s">
+        <v>85</v>
+      </c>
+      <c r="E113" t="s">
+        <v>84</v>
+      </c>
+      <c r="F113" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>82</v>
+      </c>
+      <c r="B114" t="s">
+        <v>81</v>
+      </c>
+      <c r="C114" t="s">
+        <v>80</v>
+      </c>
+      <c r="D114" t="s">
+        <v>79</v>
+      </c>
+      <c r="E114" t="s">
+        <v>78</v>
+      </c>
+      <c r="F114" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>76</v>
+      </c>
+      <c r="B115" t="s">
+        <v>75</v>
+      </c>
+      <c r="C115" t="s">
+        <v>74</v>
+      </c>
+      <c r="D115" t="s">
+        <v>73</v>
+      </c>
+      <c r="E115" t="s">
+        <v>72</v>
+      </c>
+      <c r="F115" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>70</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>67</v>
+      </c>
+      <c r="E116" t="s">
+        <v>67</v>
+      </c>
+      <c r="F116" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>69</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>67</v>
+      </c>
+      <c r="E117" t="s">
+        <v>67</v>
+      </c>
+      <c r="F117" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>65</v>
+      </c>
+      <c r="B118" t="s">
+        <v>40</v>
+      </c>
+      <c r="C118" t="s">
+        <v>39</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" t="s">
+        <v>37</v>
+      </c>
+      <c r="F118" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>63</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>32</v>
+      </c>
+      <c r="D119" t="s">
+        <v>62</v>
+      </c>
+      <c r="E119" t="s">
+        <v>61</v>
+      </c>
+      <c r="F119" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>59</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
+        <v>32</v>
+      </c>
+      <c r="D120" t="s">
+        <v>58</v>
+      </c>
+      <c r="E120" t="s">
+        <v>57</v>
+      </c>
+      <c r="F120" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>55</v>
+      </c>
+      <c r="B121" t="s">
+        <v>54</v>
+      </c>
+      <c r="C121" t="s">
+        <v>53</v>
+      </c>
+      <c r="D121" t="s">
+        <v>52</v>
+      </c>
+      <c r="F121" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>50</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
+        <v>32</v>
+      </c>
+      <c r="D122" t="s">
+        <v>49</v>
+      </c>
+      <c r="E122" t="s">
+        <v>48</v>
+      </c>
+      <c r="F122" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>46</v>
+      </c>
+      <c r="B123" t="s">
+        <v>45</v>
+      </c>
+      <c r="C123" t="s">
+        <v>44</v>
+      </c>
+      <c r="D123" t="s">
+        <v>43</v>
+      </c>
+      <c r="E123" t="s">
+        <v>43</v>
+      </c>
+      <c r="F123" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>41</v>
+      </c>
+      <c r="B124" t="s">
+        <v>40</v>
+      </c>
+      <c r="C124" t="s">
+        <v>39</v>
+      </c>
+      <c r="D124" t="s">
+        <v>38</v>
+      </c>
+      <c r="E124" t="s">
+        <v>37</v>
+      </c>
+      <c r="F124" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
